--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_413.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_413.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>你知道它是什么意思吗？</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>看一下这个标志，</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>请你说一说这是什么</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>开始好，？</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>怎么样，有没有我们班谁也会跳街舞的，有，</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>我想问一下，你知道申请了哪些器官参与的运动吗？</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>那我想问一下，没关系，我不让你表演。我知道，</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +644,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>你来试试</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>哦，比如说那个动作就是是吧？那刚才他说的手脚，这是我们外部的器官，来，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +681,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>在运动的时候，需要用到这样的几个器官，</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>有了这三位的帮助，我们才能够完成，身体的运动，</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>好了，这三位加起来呢，其实它还有一个名字，他们共同负责我们身体的运动。所以他们三个统称运动运动，</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>今天我们一起来做做运动</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>运动。那不运动的同学，，这个运动动叫做举哑铃，哑铃在哪压力，你们自己带上了吗？哎，刚才刘老师让你们带了半水杯一个iphone,这个就是你们带会的压力。好，</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>请男生读绿色的字，女生读红色的字，实验步骤起</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>那咱们先来了解一下规则，请男生读绿色的字，女生读红色的字实验步骤起，</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +866,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>有些人的嘴巴，</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +903,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>用手去触摸，可以摸到什么？</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +940,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>用手摸，用眼看去找一找</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>好，待会儿你们就咱们吃。临时腹骨关节肌肉的变化，以及猜测一下他们三个到底起到什么作用？好，</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +977,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>我请退的小组来说一说他们要中插线</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>好了，坐人坐来，，</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +1014,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>来陈国</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>好，其他人有没有不同意见，有不同意见吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1051,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>那根据你们刚才的活动，谁要来猜测一下五花元肌肉，它们到底会起到什么作用呢？</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>你帮他们说的更加具体了哈，更加细致了。好，请坐。就是我们的运动都是什么作用？来来，</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1088,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>它提供一个弯曲的点，</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1125,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>关节，它可以弯曲，</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1162,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>灵敏是你的神经在帮助，而那他会让我们身体更灵活568，</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1199,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>在你们右前方的位置里，书桌里找一扫咱们的模型材料有多少</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>你们向来试一试，好在你们你右前方的位置里，书桌里找一扫咱们的模型材料有多少，</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1236,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>谢谢张大，你，</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1273,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>蓝色的那一块，他说的很好，那块肌肉叫做肱二头肌，就是咱们通过秀肌肉的比较上肌的这个位置，</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1310,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568把你的模型框架明显放大点，</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1347,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>只有这一块肌肉够不够够？因为肌肉只能收缩和放松这块，肌肉放松了，你的手还是保持在这儿，怎么办，</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1384,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>在它的对侧。我要提醒范大主，</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1421,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>在你的手臂的下方，还有另外外一块肌肉，它叫做肱三头肌，三头肌肱只有二头肌和三头肌，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1458,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>三头肌怎么运怎么锻炼呢？有一个动作叫小燕飞，体向以前，拿着你的哑铃向的累的累，这个动作向后方向后方去打开，这以我可以锻炼你的弓三头，</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1495,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>哎，他们三个争一下，谁是老大，不会厉害？</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>968好了去了，但平时我们的骨骼肌肉和和节节，他可可不可以独立活动？可不可以？</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1532,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>那只有肌肉手速关节骨骼说我们都不配合，他能不能完成运动，不能。所以他们三个不可不可以独立的去运动，而需要相互依存，相互配合协同运斗，</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1569,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>我们一起来读一下五</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1606,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>八号</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>有时候还会出现这样的小问这样的一些你不太喜欢的那怎么样才能避免呢，来，我们来打开一下，怎么样才能避免出现受伤的行为呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1643,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>注意运动适量哈水还有30哈，</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1680,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>在模仿1568，在模仿我们骨关节肌肉的工作原理，看一下它在哪里？它更多的是模拟的肘关节。先看一下它呢，</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1717,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>画一画哪里是骨骨里是关节节，肌肉，先把骨在哪里？</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1750,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>关节是要干嘛要弯曲的地方，对吧？</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1787,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>他要是重新来，</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1824,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>这个液压装置是驱动我们这个挖掘机去运动，</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1861,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>的，为什么要选一呀来选择？</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1898,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>不要说出来，用理由来分析到</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>好，再看下一道题目的读，我们可以灵活的转动手腕，这是因为谁在发挥作用呢？好，，</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1935,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>哎，这个叫什么呀？</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>那前段时间呢，方老师也去了这个诊所，就发现，就发现哎，医生手里面拿了一个器，注射器注射器是不是，</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1972,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>这是什么？你是想说这外边的这一个壳子是不是头哎头头这个叫什么呀？</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +2009,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>仔细思考了，</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +2046,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>好，你来说你来，</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2083,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>分别往里推手往外拉，</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2120,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>只是讲了，如果做实验，那做完实验还要干什么丢，你想干什么，不是这个人需要干什么，</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2157,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>录记录在哪，记录在哪？</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2194,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>请你们画出注射器的活塞位置</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>那包老师这里就有一些温馨提示了，。什么表表示，</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2231,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>起泵，那我们的水和空气都会怎么样的，那我们实验还成功吗？不做的，所以说一定要注意，不要用太大力听清楚谁要求同学坐姿，</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2268,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>那现在请你们就开始准备实验吧。</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>这个小组同学。好，</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2305,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>好，再给两分钟的时间边观察边记录哈，用手堵住橡胶塞</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2342,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>你来补充。</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>另外一个就应该是装什么，</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2379,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>表扬小组多少券，等会儿回去找郭老师，一人拿一张表扬券，金小组，也是等会儿回去找郭老师，一人拿一张表扬券，好，</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2416,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>真牛吧，老师，我们现在是在录课，</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2453,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>你来推你来推你来推水的，你来推空气的</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>那我现在请请你们继续拿，往里面推活塞的时候，这个10好像会变成多少，你来你来你来推你来推水的，你来推空气的，那个都是10h，对不对？</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2490,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>举手说往里推进活塞有没有变化？</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>哎，等一下，我只是同学们往里推，对不对？好，往里推这个水有没有电话，我听同学说着喝，</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2527,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>时而变成我在它占据的空间，就小，这个这怎么来小变小了？杜国义。</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>好，那我再请你来往外拉的时候，水会不会变化？你告诉我，</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2564,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>如果你特别大拉成了这个样子，跌那太大了，对，所以说所以说不要雅雅是在做资料证的那我去，</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2601,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>变小了还是变少了变少，它不它会变少吗？我都做，哎，它变少。对，为什么就站的后面会变小呢？</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2638,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>你来说你来说</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>，因为微语之间的间距变小非常棒，给他。</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2675,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>再请一个同学告诉我，往外拉着时，他占占的空间变大了</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>那它们就聚集在了一起，所以说它占据空间就变小了。，那说明规定怎么样？面距天气变，</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2712,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>好，准备好了吗？你们好，上课，可以哈，好，请坐，那大家看到这个题目，</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2749,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>那你想一想，这里面会存在哪两个相关联的量呢</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>也就是刚才同学们所讲的一种量，随着另一种量的变化而变化，大家来看一下，倒果汁是不是我们常见的行为？嗯嗯，，</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2786,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>谁是随着谁的变化而变化的呢</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>那随着果汁高度的增高，我们在六年级上学期所学的什么也在变，那个大大大果果汁的体积体积也在变好，那我们找到了这两个变量，那一个是高度，一个是体积。，</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2823,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>谁来说一说</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2860,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>那有没有同学还有一些想说的</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>找找同学说说他在底下说咱们要有表现的机会和刘耀宇嗯时间越长，路程越长，时间越长。路程也越长。，</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2897,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>随着路程的增长的变化，</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2934,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>要想知道我这一组数据是不是正比例，我可以如何做出判断</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2971,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>他要有什么电话嗯，说这有变化，</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +3008,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>好，那找一个同学说一说</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>那通过一个变化的过程，大家会发现购买的，种子，总价去，那他购买的铅笔支数数量就越多。，你看出了他是怎么样去变化的，谁随着谁去变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +3045,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>来张瑞单价单价</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>它的意义是什么呢，。好，那我们来看一看，随之而来的几个问题，刚才是不是被我们给解决了？第一个填写上表说说总价是随着哪个量的变化而变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +3082,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>练4:1，非常好来说一台怎么写五五笔，5:11.5，有人计较你1.5:51.5在哪里，</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +3119,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>是怎么样的，一定的是没有变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3156,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>价子数量的单价一定单价一定，</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3193,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>这个式子我们可以怎么读</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>例如果用x和y表示两种相关联的量，那么正比例的关系是不是可以用以下式子表示，哇，外面的x二克k一定也是一定的。</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3230,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>我们再来想一想，生活当中还会有哪些成正比例的量呢</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>好，很好，那有了这样的一个知识建构，，</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3267,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>你好像挺喜欢下课，下课，这个我们先不做研究，回来再去讨论来。你说上课听的时间越多，学到的越多，上课听的时间越多，学到的多好像不太准吧。</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3304,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>你认为做的套数和用户的米数成正比吗？</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>能能那成不成正比例，那为什么比一定的比谁产生了什么是一定的，是一定的那同样的做服装，</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3341,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>你来说说</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>那您所以说好说找同学说一说说这里为什么那么确定他们的比值都一样，</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3378,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>那个都是那个的那个不是返回讲，不动讲，不动直直接过，一起去玩一下那个，太高级了，还有那个展台，站起来打卡肯定展台，我也晓得那个展台比那个要我觉得要哪的那个，那就是他是大</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3415,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>我在这个时候要把那个，直用直接点进去就行了。我看那个申诉显示不是出来这个版本有问题，</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3452,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>有没有office？那边应该有了嘛，以后也就可以把，</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3489,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>啊，这边这边这边过来是小聪明，</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3526,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>这里四个人一组</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>，你们各位少一点，这一组可以吗？那边，</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3563,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>真好，谢谢，你来，</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3600,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>嗯，可以你呢？</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3637,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>元哎，非常好，前面的知识掌握的很扎实。同样的，把玉米平均分成，其中的一份就是，也就是，同学们真不错，那我们一起完成下面的几个，</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3674,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>谁来说？女生请</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3711,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>对，好，那像这样小数部分只有一位的小数表示，我是叫做，</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3748,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>你说嗯</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>老师这里想问一个问题了，为什么上面的阴影部分可以用7/10？和0.7来表示，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3785,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>说一说，怎么理解</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>那你怎么理解这个0.1呢？动动脑筋，结合图形，？有七段0.1。好，请你开灯你，那个女生，</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3822,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>哦，也就是说这一份是那现在是几份？11份，所以是一真棒。如果老师取这样的六份呢，那这个有几个0.1，那我是取三份呢？</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3859,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>也也就是说，有几份儿？就是，</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3896,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>来后面那个男孩子，你上</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>走了吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3933,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>哦，你就靠近他的</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>发现问题没有谁能帮他纠正一下？，</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3970,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>非常好，那他们又应该用几位小数来表示为什么有看这道题的要求，哪位同学来帮我们读一读？好进去，</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +4007,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>确要求了吗？明确</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +4044,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>个要求还记得吗？</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +4081,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>计数单位是</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +4118,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>你能说清楚原吗？</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +4155,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>嗯，可以。那接下来呢，他们表示了什么？</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +4192,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>明确要求了吗？好的开始，</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4229,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>个小组组讨论的非常吸引，这是是非常，</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4266,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>就样的就就是这样</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4303,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>有没有什么问题？那老师这里有个问题，你们能帮老师解决吗？前面的我们都知道，小数的计数，现在每箱牛，两个计数单位间的进率是10，这么理解呢？</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4340,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>你来给老师老师解答一下</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>好，，</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4377,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>百00:01？注意看00:01是这样的一条，这边应该10，以是100零，10个00:01，对吧？嗯，那现在这个小数是多少？点零一，哎，非常的好，</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4414,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>可以，啊，你说来来来第一次去场，</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4451,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>下一个数位是，千分位千分位</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4488,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>这样就把整数和小数结合起来了。那我们再看一看，从右边到左边，它的计数单位在越来越，从右往左看，万和千谁大？哇，天河北呢，所以是越来越对了，</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4525,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>再说一下，这个是1000，</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4562,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>对吗？对，第二个呢，个四到底是，多少？</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>第三个，第二个都有一点疑问，是不是？是多少？的时候像他一样写的是零点哦，搞了半天，不好意思啊，</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4599,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>那这位同学，你说一说你是怎么数的？</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>像他一样写的0.128的举手，有不同单位吗？有不同答案吗？啊，</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4636,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>那你算算应该是多少？</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>也就是他刚刚属虫的，是不是这个意思啊？</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4673,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>后面那个女生</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>对吧？哎，好，第二个，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4710,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>最后那个男生鼻子手指高高的好，就是你</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.127，对吗？</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4747,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>我们用课本上的话来说好吗？</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>哦，喂，</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4784,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>山东煮鸡蛋香吗？0.7，0.400.107来表示，10分之几，</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4821,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>就是对了，它的计数单位有，</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4858,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>孩子们再见，</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4895,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>沐很把声音开好，恩情很好，</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4932,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>非常好，来，再一次，我最后说</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4969,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>谁来读不脱掉的，读来读有感情的</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>里面有什么诗的，而且前面的内容讲的都是诗的关于诗的背景啊，作者呀还有诗的意思都包含在里面，对不对？这首诗这篇课文里面藏着这首诗，对不对？叫什么好，，</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +5006,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>如果觉得有些难图呢，在家里可以多读几遍，这样就通顺啊，请坐再请个同学来来，李春来，</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +5043,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>谁来你来读读，看夜深了</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>着嗯，听出来了，母亲的爱都饱含在这个针脚里面非常好。，</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +5080,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>你们听好啊，开始了</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>啊，来过来一点，过来一点好，好，，</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +5117,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>好的，找他讨虑一下，</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +5154,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>你来读，朱子涵</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>还指着母亲啊，就像泰说的真好，孟姜子摸着身上的衣服，注视着那又细又密的针脚，心里想，来里讲了什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +5191,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>你再来读一遍</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>会吗？很好，，他心里怎么想的？他摸摸着身上的这个衣服的针脚呢，心里还在想，</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +5228,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>谁来读下句郑梦琪，郑梦琪</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>好，然后呢沐浴着阳光的小草，，你不要坐下，无论怎样，都抱在不调太阳能说明怎么样，</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5265,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>对慈爱的母亲，</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5302,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>哎，缝衣服的线，</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5339,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>非常好，密密缝对</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5376,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>谁能够把这个句子找出来</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>然后呢啊就是怕孩子啊，回来他就实盼望着孩子呀，早点回来是不是非常好？来，最后一句其实很简单，谁言寸草心报得三春晖就在，这个他的意思就在是故事里面，。那问题，</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5413,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>这句话要背什么啊？母亲的慈爱预备</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5446,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>好，我们现在把书放在桌上，看着这个诗，预备起。</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>好，我们现在把书放在桌上，看着这个诗，预备起</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5483,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>诗人对母亲养育之恩的感激之情。他写这首诗是为了感激母亲啊，抬起来啊，</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5520,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>稍微好一点的叫个弟弟，你不能啊，因为你二年级了，你不能再像一年级小朋友一样太简单啊。他说加了一个地点可以的，，他从忙着蜜蜂，忙着</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5557,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>勤劳的采蜜不对，勤劳的蜜蜂可以的，辛勤的采蜜倒是可以，哎，很好又加了一个形容词，心情很好，辛情的采蜜，</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5594,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>时候就是准准备食食什么，对不对？你说，啊，也可以，放学了值日生们忙着，打扫卫生完了打扫教室都可以啊，对了，还有呢？那你来，</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5631,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>因为啊这个情况呢，你可以说下雨了，奶奶忙着收衣服，衣服放在外面，对不对？下雨了，这忙着把它收进来了，对吧？都可以的啊啊，下班了，爸爸忙着赶回家，啊，怎么样为我烧菜或者啊烧饭的菜品啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5668,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>后会喊哈，他都会写的那就写吧。</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5705,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>我们一起来把啊</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>，因为这个这个，</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5742,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>人的性格特点啊，哪两个词语可以说这个人的这个特点，性格特点，对心狠手辣谁心狠手辣在故事里，</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5779,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>来，谁先来说一说</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>好，那么昨天我们就私了，晨晨为什么要救母亲？第二，自然段给了我们答案。，</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5816,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>好，你继续读下去</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>雪好的，来，你听一下啊，这个就是，这个就是他的师傅啊，他师傅也挺啊，像个仙人一样啊，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5853,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>作业。嗯，好的好，他说过这个不能再重复了这个这个句造句，太普遍了。对，是对的，但是我不希望再听到这样的句式，好吧啊，你对的啊，没有错，但是这个太普通了，你来，</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5890,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>啊，唐思成</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>很好，他这个也一匹啊，这第三声说的很好，这几个不举手的啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5927,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>来你来</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>你的锻炼就没有效果了啊，开心的啊，学什么？啊？有这个啊，你喜欢在公园里跳什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5964,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>来你说</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>就怎么样就睡的，他死了，是不是啊啊？，</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +6001,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>顺顺再来一句对你就是我</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>啊，你到公园公园有一溜冰吗？有的有时候会有的。是的，那你最好讲一个，就是比如说滑冰场啊，是不是？他说，我一看到下雪还有滑滑，是不是好，</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +6038,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>在回家作业上面是主动写了被字，说明他们回去是认真思考，然后翻没翻字典。我今天再查一查，是的，应该查被字底，现在拿出一支铅笔在，写上一个啥什么贝，他是查贝字，有几层水要特别软的啊，座业上我都能看得出，就是很动脑筋，</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +6075,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>自然段，一共30个，你们做好思想准备，30个词语，第一个10号。好，接下来在第二自然段里沉香再三追问，再三追问。</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +6112,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>神通广大，你怎么关照老师的顺序来？神通广大一种，</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +6149,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>一棵树，施肥，施肥，</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +6186,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>施肥，改变，改变，改变，</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +6223,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>改正，有错，就要去改正它，改正，</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +6260,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>这个不可以啊，着急，耐心，耐心，耐心，主见，小猴子是没有耐心，没有主见，既有耐心，又有主见，主见，</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +6297,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>杜鹃，杜鹃，杜鹃，</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6334,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>今天只有一节语文课，我事情很，</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6371,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>我12:30左右，放在口袋里，不要放书包里，口袋嘛，</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6408,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>零号本先介绍</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>快点，好传上来，等一本先传下去啊，还没批呢啊，</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6445,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>预习的工作别忘记啊。</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6482,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>接下来的挨训情景就可想而知了，</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6519,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>李伟泽，他说那个他把球把教学楼的玻璃给踢碎了</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>谁知道了。来。，</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6556,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>觉得在老师和同学面前很失败，</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6593,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>假如你现在是小站的同学，你就在他的身边，看到他这么消极悲观的认为自己你会对他说什么，来。</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>那他真的很差劲吗？不，那徐晨，我会对他说，每个人都有自己的优点和自己的缺点，</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6630,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>谁还想说，来陈</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>他一定会迅速的什么呀？树立起信心来，是不是还有谁再来补充，每个人都有优点，就算最好的人他也有缺点。</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6667,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>来贾书涵，不要总是放大自己的缺点</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>我也想当那个同学，我来帮帮他吧。，</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6704,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>语文听写的时候发生什么事了，发生了我因为粗心的小毛病而没有得到全对啊，</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6741,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>来里面说我那个发生在那个二年级的数那个数学数学测验上。</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6778,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>请坐太讨厌了。来那个刘建刘建，挺好，然后到了三级级老师写不好。请坐，</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6815,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>不是组内交流的时候，可以简单的去写，但是表达的时候一定要充分。第二个汇报的时候要表达清楚自信大方，好吧，其他组在听的时候一定要认真听好计时开始，</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6852,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>我们把一边同一边十同学五个的同学都来啊</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>然后三个人在一起的时候，多听听王安迪，对不对？给他关注感好，请坐可以啊，这个办法不错。来，。</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6889,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>来你来补充</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>行，哎，大家也觉得是好办法，请坐。我帮助的是狄仁琪妹妹不陪你玩，</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6926,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>我在家里没意思的时候，</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6963,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>好，请坐还有没有来？等一诺，毕珍同学的凡老师，</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +7000,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>就一定能够做更好的自己。那不倒翁先生，刚才的话呀，不光你们听到了啊，然后小建他也听到了，我想不想知道，后续我们一起来看视频，其实你也很棒。</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +7037,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>谁来谁来试着说一说</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>我们以这样的方式来赞一赞自己，珍惜这个机会啊，转发，我要给自己留那点的厉害，就我打羽毛球这么厉害。来贾旭然我想给自己颁美术达人奖，</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +7074,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>来，我想给自己颁优秀舞蹈家奖，因为我跳舞很好</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>，嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +7111,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>还有没有李贝哥又要夸自己了。来那个我我也打算给自己颁运动达人奖，</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +7148,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>那老师今天给大家带来这的理论，同学们一起期待一下，你是特别的，</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +7185,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>个子大甚至太阳大也没关系，戴眼镜没关系，和别人说说你的感受没关系，咕噜咕噜吼，叫，</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +7222,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>没关系，对不好的事儿说不没关系，偶尔尴尬发窘。没关系，最后一个抵达目的地没有关系，自娱自乐的跳舞。没关系，</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +7259,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>丢了手套。没关系哦，</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +7296,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>嗯，第一个作业呢是一个游戏，依然是一个小游戏，和爸爸妈妈可以一起玩一个头脑风暴游戏和家人共同说出彼此的优点。一轮计时三分钟，</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +7333,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>他找不到了。然后呢，后边也可以加上点设计力，</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7370,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>你准备好上课了，好，</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7407,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>你说一说你做这道题的时候，你的思路是什么</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>根据这个表格，如果是太阳，如果是晴天的话，你？</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7444,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>那你数天数的时候，你是按照一个怎样的顺序去数的</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>先算完天数数，天数的时候，你是一个一个的去数的吗，好，请坐还有没有其他的跟他不一样的思路，数。，</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7481,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>他想带苹果和希瓜请坐来请桌。嗯，我也想带橘子，还有柿榴，</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7518,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>很容易携带。好，请坐来，</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7555,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>梨跟猕猴桃是吗？</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7592,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>来哪个小组快来说一说</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>我们怎么确定我要买的这两种水果，我们用什么样的方式来？你说我的字，</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7629,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>你来具体的说一说</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>他说可以用投票的方式，，</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7666,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>现在来说一说他是什么意思？</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>他的意思，你听明白了吗？你说就是就是他的意思就是说呃我们手里这张表格，然后呢，让小小组讨论的时候，比如说比如说就是苹果，</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7703,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>如果有两如果两个人打的苹果，后面还有比两个人还要多的，然后就选出第一名和第二名那种，</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7740,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>老师问一问你</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>那，他要我们打几个对方，</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7777,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>其他那儿写具体的水果园的部分</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7814,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>在正面朝上给我，好，那现在统计结果已经在老师手里了，</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7851,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>来穿蓝衣服？</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>你说可以举手嗯，可以举手。那我们选一种方式吧，我们选择画正字的方式，好不好？好，谁还记得画正字来统计的？它的这样一个具体流程是怎样的？</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7888,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>老师问一问你一个正字，可以代表几票</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>最多的那一组就能够写哦。那，五票五票对吗？</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7925,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>是不是是有一个办法，有有一个办法。哎，对，那加一个下边，</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7962,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>好，香蕉五五五五个五个，香蕉五瓶桃子呢葡萄呢五个五个，其他橘子是几个？</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7999,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>好，再检查一下，一有错误吗，来，你说老师那个雪梨下面不是还有个树，没有，我们刚才已经看了，</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +8036,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>来看这个统计表，你发现了什么信息</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>还有没有抽没了没了，，</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +8073,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>然后你在前面的说一说桃子和桃子和雪梨，喜欢桃子和雪梨的人最多坐下谁？还有没有发现来，</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +8110,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>你说，雪梨和桃子</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>你觉得我们买水果的话，要买哪两种水果，来举手来说好，是不是相对来说喜欢雪梨和桃子的人数比较多，是不是好坐下，</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +8147,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>然后你看一下喜欢桃子的同学，有几个，我们买两种水果，就是，选大家都喜欢的水果，是不是我们有两种，</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +8184,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>桃子三乘以三，加上雪梨，</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +8221,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>啊，一千克是三元几千克，</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +8258,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>你来说投票投票</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>我可以用什么样的方法，好，你说来投票投票，比如说我们可以用什么样的方式举手举手投票啊，举手投票能继体的说一说吗？就是行为徒的人就举说，</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +8295,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>谁能大声的把他的意思再给大家说一说</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>好，请坐来，，虽然大也大声的来，</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +8332,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>来，你再说</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>最后看哪个举手人数最多，然后就选哪哪种，大家都清楚什么意思了吗？好，请坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +8369,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>直接写这个蔬菜的名字就可以了</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +8406,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>来番茄的举手，</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8443,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>黄瓜的同学再举手</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8480,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>还有几个他手，谁刚才有少投的吗？有，</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8517,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>你们枚举时间几个选项，那你谁家几个？谁家就一个孕期来了，包括那我们现在的书记只有四十三个人，刚才谁刚才谁多投了，不是少投了，</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8554,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>第一个，表扬啊，啊，用你最好的坐姿告诉我，像乔子压灯箱，对这种坐姿防止做的非常好啊，非常好。现天限定请坐好，</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8591,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>这些都是我们身边优秀坐姿课准备的同学，你看位置称，因为就是同桌，你没有学习，</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8628,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>加注己，我要加五分，</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8665,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>这个老毛病啊，检查完了吗？深至复查完了，这里仅着五面啊，这样的话，节省时间啊，健达世界，</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8702,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>听到没有？这属于打击报复，一千，你把它擦一下，你只能告诉他对自己对自己给自己打勾，不需要红包打，这叫十一，</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8739,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>好，行，你啊，西坐下来，刘子一点冰淇淋，把毛病就换了，</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8776,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>不需要给你，</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8813,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>可以看书完成啊。对对，不要站在这里一数试试啊，</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8850,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>我们再慢慢说啊，都四年级了，你还不如人家三年级的孩子蹲手机里呢。并且今天早上刚刚跟你说过，</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8887,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>请坐，好，坐下了之后就坐姿坐姿，我们看看谁没有做好啊，好，我们从今天开始就开始一个新的项目主题的学习什么，</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8924,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>你再结合这一次的视频来回想一下，你觉得农园给你留下了一个怎样的印象</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>，哎，思考的时候痛脑筋去思考不出声啊，</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8961,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>好，请坐来，谁再来说一说</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8998,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>尤其是我们这样春天这样一个生命力特别旺盛的这样一个季节，在我们的农区园里面有这么多的植物，</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +9035,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>不对不对？还有吗，</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +9072,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>还有没有给你留下一定的影响</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>看完视频之后，，介绍了嗯生机勃勃，</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +9109,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>那我们制作名片，也就是说我们通常所见到的制作标签，那你是不是要对这个食物有一个了了解，哎，有一个食物有一个哎哎哎，</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +9146,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>来思考思考啊，我们可以通过什么样的方式，去认识这些食物，好坐姿，最后一次提醒哈。有些同学呀，</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +9183,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>一些跟植物相关的书，看查一查里面有没有关于这种植物的知识。哎，对，也可以去查书查阅资料。好，</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +9220,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>我们要确定下来，我们还要确定什么呀</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>好，坐下。你刚才这两位同学他们所说的都是我们这个米名片上面所需要书写的内容。好，我们现在有了一个方向，我们要写上这个名片上书写的内容，，</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +9257,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>把把我们的名片铺好之后，我们给它趴到地里面是不是，好。你看老师给大家总结别的，我们需要考虑的这些内容，</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +9294,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>看一看跟我们刚才所总结的，是不是基本上都差不多哦，剩剩一个们看一个，你们来看第六个，你们还记得我们学校的未来之前活动吗？</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +9331,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>我一开始也跟你们说过，我们去机肯定要看你的课堂表现，换了个地方，就不知道怎么办了，是吗，</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +9368,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>之前我们找过对比色是一种大概在一百八十度到一百二十度左右，啊，今天我们要看的这个对比比较柔和的呢，我们拿一个范围来说，就是大概在六十度一个范围内，</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +9405,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>大家看一看这个里面有什么颜色</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>我们再过来接着看，这个是一个秋天的一种金黄色的一个景色。，</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +9442,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>就是一种夏天的非常绿的一种色调，这个里面是不是有很多颜色的绿是嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9479,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>这个是春天开花了的这样的色色，还有白色，春天开满了粉色，红色的花，</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9516,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>我运输的一个紫色对，</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9553,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>很高。有一个上诉人，我们看一下，这是一个什么颜色的，</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9590,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>可以用一些深的黄色，棕色浅的可以用柠檬黄淡黄的棕黄等等，这个里面大面积的都是黄色，但是里面又有非常多的变化，都没有进去，还有一些水彩画的感觉，</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9627,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>如果你的颜色比较多的话，我们就可以出现一些更多的层次变化，</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9664,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>如果你的画面，你想一个太多，我们可以用一些深色的颜色，哦，这是一种经典的一种蓝蓝色粉红色，</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9701,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>大家可以在背景不同的色块里面找一些小片啊</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>在这个背景里面有一些线的分割。大家看到没有？这个背景里面的线的分割就是可以让大家把这个背景进行一个变化，不把背景调成一个颜色。，</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9738,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>首先你来确定一下你画面的一个色调，然后考虑一下需要用什么颜色，用同类色和变色的方法，把这个画面的颜色，试可以在你的本本上试一试，</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9771,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>可以改变改变树干的啊，这种棕色也可以，现在就是可以，</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9808,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>有问题可以提找，</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9845,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>我的饭的时候就涂完了，</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9882,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>是一个相当你是一个的评论家来点评。你想说的话，他用了什么色彩，怎么搭配的，</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9919,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>夕阳的那个粉红色的时候好很好，请坐这几个色的搭配呢，搭配的在一个统一的色料里面，并且还有一些不同颜色的变，</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9956,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>我认为他们比较好的达到了一种比较统一的色调，并且有一些次的变化。呃，总总体来说，大家涂的还是有一些慢太小心了。我们涂颜色会大了一些，快速一点，快时间来看，</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9993,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>上课，好好，同学们好，请坐，</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +10030,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>不是整点开放的。好好，请再来说一下，</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +10067,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>自己先默读一遍</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>那用拟人的修辞手法呢可以让句子更加的生动形象富有美感。作者的描写方法非常的好，对吧？我们可以借鉴他的来课下写一写你喜欢的花，那我们写完第一自然段呢再回到课前的这道题，，</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +10104,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>谁来尝试一下，概括我们要语言简洁，又能说出本节本段的重要内容</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>能不能借助关键句来概括一下。第一，自然段的大意呢，。先来概括一下，哎，马，</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +10141,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>你再来尝试一下</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>来谁再来数一下，可以再来说一下，马小平已经回答出来了，对吧？。很简单，</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +10178,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>谁再来说一下这么简单的题啊</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>非常好。，</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +10215,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>来请读不同的植物</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>好，请坐在这里呢，我们是直接引用关键句来概括段落大意的。那么我们第二自然段能不能直接引用呢，，</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +10252,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>请再来读一遍</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>好，请坐，一定要明确要求啊，李博轩找一找，</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +10289,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>还有一个谁再来找一找。邱浩轩</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>好，坐下他的回答不完整，还有一个自己再来找一找，，</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +10326,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>哎，王建琪</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>还是他举了一个例子来，说明他是答案，还是举例子说明了，对吧？那我们想想，除了和那开花时间不同，还和什么有关系？注意老师刚刚提有的还有的那另一个答案应该在哪儿呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +10363,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>注意概括原样简洁，谁来说一下啊？于子涵</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>来，我们看一下这节课，他导出了关键句，最后的相关词。现在谁能来概括一下这一段话的大意，结合它的关键句和相关词来概括一下大意，，</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +10400,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>来，这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>会有很多梦想，那是什么梦想呢？你要把这个说出来再听一下别人的回答，谁再来说一下，可以再来说一下，自信一点儿没关系啊，来，杨子轩，</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +10437,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>你的语言还可以更简洁一些哈。请坐你再来说一下，可以再来说一下，</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +10474,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>好，请坐，谁再来说一下来，邱浩轩，</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +10511,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>好，请坐请再来说一下</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>，他的看一点还可以更简洁一些。来，刘轩，</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10548,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>把一只什么的是不是都是形容词，能不能去掉呢，</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10585,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>听到好，你的声音有点小，下次声音洪亮一些就更好了。还有吗，还有同学来说一下吗？</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10622,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>请李子彤给大家三个空格来读一读</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>，面向一个方向，</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10659,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>韩宇飞，你前面来再给大家说一说这个方法</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>爸爸话真好，这个方法除了我们面向冬季度之外，相关是不是就可以用了？那谁听明白了方法了，把这个方法给大家再说一说，这么好的老师们再说一说。好，，</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10696,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>你像老师这么简单</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>东和西是对着的那我们的后面就是西，然后跟随王荣一说的，他们是按顺时针方向来转的，那么就是东东东，在哪儿？ok，</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10733,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>韩宇飞，你你这次听清楚了吗？来请你来再把这给大家介绍一下</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>不是不是二十多人了，对吧？南西北嗯这次听清楚了吗？今天来，请认真听。一会儿我烧烤你们哟嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10770,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>你来判断一下王喜涵</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>谁能接受被你们埋了，。你来说，我们现在没怎么啊啊，这是东，这这这是西，</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10807,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>我们面向南后边就是北，因为南后北是对着的，嗯，南后北是对着的，完，对不对，是东，因为这边我们刚才东东和西是对着的，所以这边在西，</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10844,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>给大家说专难</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>注意我们现在面向哪个方向，你就转到哪个方向，，然后，</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10881,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>最终然后一发息。那后面呢，</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10918,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>大家在课前还有两个问题，没有处理。</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10955,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>而且面向一个方向，怎么辨认其他方向，我们现在有方法了。哎，等下课之后，我们在操场下课这个方向再去辨认多辨认几次，刚才在提辨认方向方法，有的同学提到了一个特别神奇的，</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10992,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>来刘兆，你说</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>还要举手啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +11029,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>来来说说它的名称和位置有什么关系</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>容易出现歧视之间是所有的这个区域都是东北能清楚吗？啊，所以我们要注意用词。那接下来小兔子不想在这儿转了，我到了这个方向上，这是东，</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +11066,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>接下来小兔子蹦到这里了，它的名称和位置有什么关系呢？</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>李泽轩，你说东和南之间的都难嗯，这次用词是不是特别清晰了，是它之间的位置。请坐。</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +11103,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>先把其他几个好销补上。</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +11140,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>好，李佳泽，来</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>谁来帮帮他啊，帮他把他的辨别方法说清楚。，</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +11177,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>对，对面就是西东西，恭喜东南，西北是按照顺时针进行的最东南西西北，东北和东之间就是东北，东和南之间就是东南，</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +11214,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>那这你是用这个方法辨别的吗？</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>男孩的心先生，西南西和北之间就是西北。是不是好，请回来张玉浩有什么想说的，我还有别的联的吗，</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +11251,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>这个清楚了吗？哎，还可以看岩石，有青苔的，一边是北吗？还有没有你说还可以看木桩那个呃木桩的那个，龙之的那边，就是，</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +11288,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>你来说有的是路，有的是哎</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>你有什么发现吗？张玉浩，，</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +11325,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>你，我，今天中午休息的情况啊，个时间没关系，</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +11362,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>带的意思就是说你有一道题做两道题，也就是说问不出来，</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +11399,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>我上面东西给你提交，每个方，</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +11436,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>你有没有同学把每到300？</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +11473,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>又打起，先回顾小，昨天是从哪几个小生医院？别扭着干嘛？</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +11510,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>所以他这个内容就提前幻想出来，但是幻想又是有一定的科学依据的。比方说里面提到了很多数字，还有很多的一些科学的专用名词。所以科学的文字能够使得这篇小说的内容显得更加，</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +11547,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>的一种比较常见的写法。这边，昨天让大家把伏笔跟铺垫进行了一下区别。电池，不是耐的金字卡的电池下面是一个，伏笔跟书店的区别在于伏笔，它应该属于暗示。</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +11584,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>你必须要把整文章读完之后，站在全部的角度来讲，可能才会看出来这是属属。所以这这种刑法相来讲。但在小说里面的话，不必太出现的。我们小说里面有三样事，一个是妇事情节，一个是人物形象，还有一个是，</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +11621,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>如果你认为这篇小说主人公是我的话，首先你的理由是什</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +11658,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>他感受到生活的什么</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>而且我受到他的影响，我的改变是非常大的。具体表现在哪一方面的改变？对，是对生活，而不是对工作啊，是对生活的态度发生了非常大的改变。由原先觉得生活是灰色，后面。</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +11695,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>别的来说一下，知代理，</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +11732,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>我由原先那一个对于生活消极的消沉的一种态度，转向了能感受到生活的美好表达什么主题？</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>你现在还在做事情下姑娘精神品质，影响社会。我正是因为受到了姑娘，她的影响。所以</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8721,6 +11769,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>他为什么作者为什么很刻意的去通过写？我受到小姑娘的影响，变得开始去感，受到生活的美好。可见，作者想要向我们传达这，</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8748,6 +11806,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>他通过我对于生活态的一个转变表达什么？主，</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8775,6 +11843,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>自己再交给你</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>小姑娘把它作为小公主用，还是去分析我把我作为主人头，其实你做的主题一样都是一样，都都是什么？表达的是对于美好生活的什么向往与热爱，，表达了最美好生活的项目，</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8802,6 +11880,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>你不需要把它想的太多，所有的科幻小说，它最终主题都会指向现实生。而且无一例外，要么是关注到人们就现现代社会，人们对于生活的一种态度，要么去关注到现代社会中，人性还记得什么叫人性吗？</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8829,6 +11917,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>他的题目其实不会出的太多，基本上就是在这个框架里面，但是我定要注意下，因为它的这个内容可能跟我们，所以你去读画小说的时候，稍微准备一下，要读慢把那个故事细节，去年期末考的青年期。现在我，</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8856,6 +11954,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>你觉得什么叫英雄？</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>我们在那克国伟大的类里面面也接触了这个概念啊，他说他是他们是一群英雄。那整个这两篇我就这样来排，就隔一下那一个伟大悲剧，随便带着他的眼睛。我们因为</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8883,6 +11991,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>如果让你给组下个水</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>，一种情感，补味还有呢？</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8910,6 +12028,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>有责任心，那就有担当是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8937,6 +12065,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>建业同学还有吗？</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>建业其实就是有责任的啊，勇敢，勇敢就不畏呀，勇敢跟畏一样的勇敢就不怕。还有没有？</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8964,6 +12102,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>没有有曾经有过是吧？他也是个很负责的，一心想要去赚钱，去卖车的，就是去追求一想过一个独立生活的，但他有没有有牺牲精神，包括有的在一个领域有贡献不成，什么在哪里？</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8991,6 +12139,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>你给我举个具体示例</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>这个主人公尼诺船长算不算英雄？上不算。上，像不？如果你觉得帅，首先这个品质它有的是吧？这个责这个责任有担当呢，也有这些精神呢，没有有没有有有没有有，</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9018,6 +12176,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>结果把太阳作为放大器的话，能够通过太阳的辐射，将那个电波的那一个强增大，结果意外的将一个电波发射向了，曝光年以外，好像说10几光年以外还多少？光年，人大是，这个。</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9045,6 +12213,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>我的，你的手，我们，</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9072,6 +12250,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>这一天是，第一个张，</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9099,6 +12287,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>多年碎间，经过经历，第二个并不可得的性质是为，听到，你这个写的太离谱了，你是什么？最好？最后还有呢</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9126,6 +12324,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>怎么可是能怎么能？根据，自己知道的道理，我就敢，多了吧，怎么可以根据自己知道道理？主观判断，呢？好喝吗？啊，这个例断解释为主观判断，</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9153,6 +12361,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>快速把这个黑板上把屏幕有再看一下意思么？</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9180,6 +12398,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>没有边翻的边写边写啊，第一，这边的，第三题的a项什么断句断句，首先先注意一下是非，这制度什么？费啊是非怒费，这句话里面它其实是主，比较典型的主谓宾结构，但是很多同学们看不出来动词是什么？</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9207,6 +12435,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>它就是个动词呀，中文也一样，用中文是模仿英语的啊，这个是在中文，在现代汉语里面，它是判断动词词。我是老师，这半天我是主语，事是动词。老师是宾语，同样的道理是非非，这句话里面，</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9234,6 +12472,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>速流肯定是速流，就是逆流啊，速流就是逆流。</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9261,6 +12509,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>这么个月了，主要为了几个字的意识，快速的把来，就记录那两道题。</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9288,6 +12546,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>你在哪一次没过？</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9315,6 +12583,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>来这位同学,你来补充</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>应当啊衣服应当后面短前面长，</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9342,6 +12620,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>第一点原因，因为他制造的衣服长不耳宽宽窄都非常，劝序下沉。这是第一点。第二点，一般的裁缝他衣他只是去关注到这个顾客他的身体的尺码，但这个材质它关的，关了什么？</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9369,6 +12657,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>所以阅读理解很多时候是这样子的，一方面描述，读书，他文本里面给你的那些答，你起码你要先把，第二点，理解理解，在你阅读的基础上再适当的增加你，自己从他的文字里面。第一个就是超远，然后把这一个，</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9396,6 +12694,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>特别下应该是第二起嘛，必须要是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9423,6 +12731,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>定制好之后放到120e，完成必学，二必学四任务，一跟任务二，</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9450,6 +12768,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>所以他天下是宰朝中宰相啊，然后最后所以SBC就不讲了，任意答案，边进边去背，和干解释为何啊，单单一个是解释为二，</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9477,6 +12805,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>担这个子已经好几次了啊，子，</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9504,6 +12842,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>然后后面就选择题选a下，选a吗？他选a对啊，选a，a像这样都解释为，探究或研究啊探究或研究看一下b项溯流的溯是逆溯本求源的溯的，</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9531,6 +12879,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>一个是解释为停止另外一个日三竿太阳已经升到了30竿头，升到很高的地方啊，所以第二个日的理解，所以是经地下一老河边闻之的闻解释为音后面举世闻名的闻呢，</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9558,6 +12916,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>就是这这应该就是一种笑法，就是一种爽朗的想法。心里心里的话就是觉得这老婆听他说到这个话很明显是有，</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9585,6 +12953,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>读一下啊</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>，他说，学渣，讲学家示意带着负责态度，对讽刺了那种只有理论空发议论，却得不到真实见解，还以什么什么家称之的人。然后现有很多专家讲究在队里面，他没有实际的一个生活经验。</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9612,6 +12990,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>搜查一下青与爱青与爱麦，你要我吗？</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9639,6 +13027,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>西凌波不过横塘路，宋贺祝为拜期，岸。</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9666,6 +13064,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>大安诺尘烟的烟什么意？这个烟,</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>20寿，并这个并什么意思啊？哎，很好，请坐，大安诺尘烟的烟什么意？这个烟，</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9693,6 +13101,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>接下来请那个子怡来翻译一下，求20寿于水中什么意思？</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>分人募集前台重修寺庙，接下来球20寿于水，中球是，爱寻找，</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9720,6 +13138,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>以为这是以为以为是什么意思啊？认为谁认为，哎，这个一定要把主语补上去，僧人们认为，</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9747,6 +13175,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>折好赵树小周这个赵是哪意思？划船本来是什么意思啊？</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>顺着河流下去了，对吧？好，请坐，接下来</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9774,6 +13212,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>高兴的，是我终感受的那我接下来听着，翻译而背不能</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9801,6 +13249,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>随手啊举手回来，这还有没有其他颜色？</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>那现在听清楚我的问题，我们学过，是的，还有没有其他的意思？我们学过的，最最简单的袖袖子，是那个叫什么？我是老师，这个事就干嘛？</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9828,6 +13286,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>判断词就是是的那还有一个是不是我我现在学学的这的意思思啊，接下来再来，是非木肺的木肺啊。</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9855,6 +13323,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>我看到是宁泽宁泽木，啊，接下来再翻。欢迎你是非是非，</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9882,6 +13360,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>接下来告诉我，听清楚了，告诉我，这个字，怎么念</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>张峰，老师还，老师打给小，加，油哎，喜是怎么的意思啊，启能呢就是怎么能好，</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9909,6 +13397,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>你走啊喂走，我们说123，开始123，会唱儿子，他他会唱歌，喂，翻译喂，</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9936,6 +13434,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>是非，非，岂能为道长？之去，在实现，千，杀尽松，烟云沙上，剑神剑身，</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9963,6 +13471,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>你应该是哪里找实效啊？</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>所以这个讲学家的观点，</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9990,6 +13508,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>那最后有人又又来发表表观观</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>在河流的原地长，那么这组成功了吗？没成功。，个个人是那些猫问老河兵是一个什么人？张斌是谁？</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10017,6 +13545,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>哎，巡河和护河的士兵啊，</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10044,6 +13582,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>你就直接翻译为老何并没有关系啊，了这件事又</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10071,6 +13619,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>凡是，河中，抖，音抖音，我爱你当当当应该什么意思？叮当，当求之于上流一般应该是什么？这段话应该是</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10098,6 +13656,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>他这个写的是当求之于上流。但我们知道发音的时候应该怎么发音于上流，求之所以它也是一个，看到的焦距，而且是一个咒语控制，应当在河流上游，</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10125,6 +13693,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>右应该是10套啊，这里讲前面讲的是10套嘛，应该是上游寻找石头，盖性兼重，对盖大概或者因为因为，这个就算不是呢，这个这不是通，这个钙，</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10152,6 +13730,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>因为怎么样？因为实性接受同样的翻译，是右翼，沙子呢？又轻，水不能冲。水。哎水不能把石头冲能冲石石石，反击，他骑什么？骑士</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10179,6 +13767,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>其应该是水，应该是什么？水撞在石头上，石头有，对，一个个，然后我就那个10min给他一个看，最后令，对吧？所以新之可以怎么翻译啊？</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10206,6 +13804,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>这个课下朱是这么说，但是你们用你的话来翻一下，不然你说啊，因为水不能焯。</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10233,6 +13841,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>如应该是如果还是像，像像爱像，然后是不是这样呀？是就是这所以合起来就是，像这样，那如翻译为像的英雄，你曾经</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10260,6 +13878,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>其实大家都知道一句话，一日不见，就一天没见到他，好像过了三年，多年了，对如实，</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10287,6 +13915,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>明天我再告诉你，明天我在干嘛？石头，首先我们就先来面试，我去品尝一下它，对不对？石头就又会沙子被冲刷掉之后，形成一个坑洞，石头就会，倒在喷洞中，喷洞就会，倒在喷洞中是往前打还是往后打？为什么是往往前还是往后？</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10314,6 +13952,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>往哪边的，往这边还是往这边的，肯定会往喷缝里倒吧，喷洞在哪里啊？想想看沙子呢，在这里这里有一个坑洞坑，为什么叫洞啊？坑和洞是比一般的地平地平面要低一点，刚刚看起来，</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10341,6 +13989,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>你看他说水从这边流下来，对吧？撞到这个当时，</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10368,6 +14026,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>寻找的不是更荒唐吗？如其言，像妈所说的果得于数里外，在</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10395,6 +14063,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>得于数里外又是一。他真正的语句</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10422,6 +14100,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>我得榆树里外的真正语句是我于树里外，得什么啊，果树里外得，</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10449,6 +14137,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>没有，然后来一起把这这段话，一位老何兵听说了以后，又笑着说，背读原文啊，一老河冰文是应该</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10476,6 +14174,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>但河水冲击时候返回的冲击力，</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10503,6 +14211,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>面山，为凯旋，越冲越深。是那当洞延伸到石头底部一半时，迟到必定会倾倒在风暴雨，势必导致凯旋中。势必导致，像这样多次，</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10530,6 +14248,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>不是概念，石头又会多次向前翻转，</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10557,6 +14285,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>好，来，这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>不存在转，是受法院逆流而生，</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10584,6 +14322,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>少年，未返流觅少年，</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10611,6 +14359,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>人我得余数里外如其言，以外。好，接下来还有最后一句，最后一句明显就是一，吃了一个吃了一个，吃了一个，哎，过程作者是纪晓岚，那我们看一下纪晓岚，然则什么意思？</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10638,6 +14396,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>不知其二者多矣，哎，不知道其中另一个方面的人，多了，所以你告诉我这里的者人但知其一，不知其二者歌者是吗？歌人，这是个人，可知理亦在于</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10665,6 +14433,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>非常好，难道可以根据某个道理就主观臆断吗？这个鱼就是一个，这是一个</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10692,6 +14470,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>就是大家这个可能有点不认识，但是他跟这个是同一个，</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10719,6 +14507,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>现在我们把最后一句话翻一下，既然如此，那么，天下的事，其中一方面不知道其中另一方面的人太多，难道可以根据某个道理就关？</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10746,6 +14544,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>直性兼相，互不性接</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10773,6 +14581,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>自班吗？天天说杀气轻，我们班的沙姓陈，沙性怎么样？他只知道讲学家，只知道，</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10800,6 +14618,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>烟雨沙哎，是烟雨的，刚让大家，知道的其二是</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10827,6 +14655,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>你来说一下</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>而且他们都做了同一个动作，那就是效率。这两个笑有没有什么不一样呢？心里头语气、神态心理，这是我们的首先我们来看一下这个讲学家的笑，它会是什么请那个景，，</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10854,6 +14692,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>他的语气肯定是带有嘲讽的，他的神态呢？哎，傲慢文洋，洋心里呢急确</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10881,6 +14729,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>嗯，你为什么是这么？你为什么就觉得他</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10908,6 +14766,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>对他一上来说第一句话就是你们都是，你们这些人啊一，上来就去把人家那启蒙怎么能看？</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10935,6 +14803,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>接下来再请其他班组再来，再来念我们的逆想</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>，学加一词，逆想学，蛇道四周，是小曰，二，不能征服，回到，</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10962,6 +14840,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>请听一下第三组呢</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>接接下来我们，其他三组一脚回家里教学家，到四中，文学校园，恶，一盆，怎这样的再给，</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10989,6 +14877,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>学渣，预备预备射，寺中，闻之笑曰，</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11016,6 +14914,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>来可以有重点方是可以的。好，接下来，这个，</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11043,6 +14951,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>完之后应该怎么样？</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11070,6 +14988,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>依你来说一下</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>我一起来先请，，你觉得讲学那个老婆兵的笑是怎么？为什么？</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11097,6 +15025,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>是你</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>为什么从这里能看出他的自信？，</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11124,6 +15062,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>保持自信的还有吗？那个晚，哎，为什么？</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>说明他对这个事物非常的了解。那自己如果胸中有沟壑了，自然他就更加的自信了，对吧？这这样是说，</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11151,6 +15099,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>小小的嘲讽那个老小小嘲讽那个蒋学家的意思，那他神态就心理应该是怎么样，神态应该是怎么样？胸有成竹的，神态cstyle还可以，昨天开了吗？</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11178,6 +15136,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>哲给他说一下</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>很笑容满面的嘛，他竟然笑了嘛，他的笑就不应该是那种，有讲学家的那种，有点嘲笑的，就是那种特别嘲笑的，意味着他的笑是比较属于比较自信的那种。那他心里可能会想些什么呢？他心里可能在想什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11205,6 +15173,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>跟小学家有点不一样的在哪里？他</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11232,6 +15210,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>井松，水不能充食，去凡，10里必于，下意胜，面纱唯，穴，期见身，</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11259,6 +15247,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>找到，势在变，时又在转，</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11286,6 +15284,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>一个人叫做讲学家，一个叫做老，这两个称呼有加用，一个自己给加，假面？我们加一个是要，称呼一样，说明他们的啊，为什么你们说他们</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11313,6 +15321,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>知识有球来源于颈椎好像还要泡脚。</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11340,6 +15358,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>沁还有什么要讲？</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>他说这个讲学家是有点纯靠一个纯凭想象的，但这个老河兵不一样，由由由于他核，复的这个经验，他知道盒装丢失的时候应该要去往上流转啊，所以说其实有很多知识是来源于生活当中，</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11367,6 +15395,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>可以说明显在作者眼眼讲学家是那种只考虑到一方面的人，而老何兵是考虑到，哎，双方辩论所所以他对奖学家这个态度肯定是，有点什么在感？讽刺加讽那讽刺仅仅是讲学家吗？</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11394,6 +15432,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>类奖家这一类播？刚刚同学发言都有提到，只会那个，</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11421,6 +15469,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>是看起来特别特别厉害的人。但是我们知道他到最后他的结论是错的，他这个人还有点点么样，其实那个人也不要要问这个讲学家，但是他自己终身，你们这些人怎么样怎么样，应该要怎么样，这个人有点什么样的意味感。那天我们有学过一个</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11448,6 +15506,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>讽刺是什么？讽刺那些空谈理论却没有真实的技术借鉴，还以什么什么家来称之的人，没有什么真实的见行，因为他是没有实践经验。刚刚同学们一直讲到这个老何兵是有经验的。你从大家可以看出来，老何兵是很有经验。这个老子老字说明什么</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11475,6 +15543,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>就开始想要去指导别人，好为人师的那种人，他们做事情都不只考虑那么一个方面啊，然后就拿自己知道这一个方面，在那边得意洋洋啊，他想说这所以你说这篇文章到到底最后是想要告诉我们什么呢？最终是想要告诉我们，</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11502,6 +15580,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>这这个叫，每次啊都说我对本没有校，对，没有教育课上都已经讲到题目不去了，都本我刚刚刚候也就看到什么就看到呀，当时看的时候，你看到眼袋在那边，</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11529,6 +15617,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>大家有没有还记不记得这篇故事选自哪本岳微草是一部。首先我先问一下大家，</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>你要有自己的实际生活经验。嗯，这个我等一下给大家介绍一下，岳微，观察细小的事物，略微草堂是纪晓岚的</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11556,6 +15654,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>纪晓岚做了一件特别特别了不起的事。</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11583,6 +15691,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>人就算他就算做了很多伤缺害的事，他也不是很感动纪晓岚，</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11608,6 +15726,16 @@
       <c r="E414" t="inlineStr">
         <is>
           <t>个体发言</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>和珅是历史上的大贪花，</t>
         </is>
       </c>
     </row>
